--- a/acervo separado/Acervo_Artigo_de_tabagismo.xlsx
+++ b/acervo separado/Acervo_Artigo_de_tabagismo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1103A59-C1B8-4221-8142-9D3B5FB1ADA6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3711E4F1-30EA-40F5-BC3A-B7F0F81EF734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$S$2</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$S$2</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +114,6 @@
     <t>Tabaqueira</t>
   </si>
   <si>
-    <t>Madeira pintada</t>
-  </si>
-  <si>
     <t>14,0 x 2,3 cm</t>
   </si>
   <si>
@@ -129,6 +133,9 @@
   </si>
   <si>
     <t>2,3 cm</t>
+  </si>
+  <si>
+    <t>mattec_170</t>
   </si>
 </sst>
 </file>
@@ -513,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -600,10 +607,10 @@
         <v>16</v>
       </c>
       <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
         <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -623,10 +630,10 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -647,10 +654,10 @@
         <v>21</v>
       </c>
       <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
